--- a/results/gurobi_cplex_comparison/seed_10_k_10.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_10.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.013</v>
+        <v>0.315</v>
       </c>
       <c r="F2">
-        <v>0.048</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.005</v>
+        <v>0.413</v>
       </c>
       <c r="F3">
-        <v>0.018</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.021</v>
+        <v>0.612</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.794</v>
       </c>
       <c r="F5">
-        <v>0.034</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02</v>
+        <v>0.977</v>
       </c>
       <c r="F6">
-        <v>0.038</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.025</v>
+        <v>1.143</v>
       </c>
       <c r="F7">
-        <v>0.039</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.052</v>
+        <v>1.441</v>
       </c>
       <c r="F8">
-        <v>0.073</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>1.633</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06</v>
+        <v>1.984</v>
       </c>
       <c r="F10">
-        <v>0.163</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.034</v>
+        <v>2.234</v>
       </c>
       <c r="F11">
-        <v>0.093</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.023</v>
+        <v>2.524</v>
       </c>
       <c r="F12">
-        <v>0.057</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.017</v>
+        <v>2.891</v>
       </c>
       <c r="F13">
-        <v>0.05</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.083</v>
+        <v>3.285</v>
       </c>
       <c r="F14">
-        <v>74.05200000000001</v>
+        <v>14.077</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.021</v>
+        <v>3.643</v>
       </c>
       <c r="F15">
-        <v>0.07099999999999999</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.056</v>
+        <v>4.082</v>
       </c>
       <c r="F16">
-        <v>39.245</v>
+        <v>34.647</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.138</v>
+        <v>4.779</v>
       </c>
       <c r="F17">
-        <v>103.776</v>
+        <v>44.398</v>
       </c>
     </row>
   </sheetData>
